--- a/medicine/Mort/Tombe_des_Chapiteaux/Tombe_des_Chapiteaux.xlsx
+++ b/medicine/Mort/Tombe_des_Chapiteaux/Tombe_des_Chapiteaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe des Chapiteaux (en italien, Tomba dei Capitelli) est une tombe étrusque à hypogée de la nécropole de Banditaccia à Cerveteri.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tombe des Chapiteaux date du VIe siècle av. J.-C. creusée dans du tuf volcanique et à entrée unique. Son nom provient des deux colonnes à  chapiteau éolique  situés dans la salle principale, soutenant le plafond plat entaillé, à poutres en bois simulées et reproduisant le plafond en lames de parquet[1] des maisons des vivants.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tombe des Chapiteaux date du VIe siècle av. J.-C. creusée dans du tuf volcanique et à entrée unique. Son nom provient des deux colonnes à  chapiteau éolique  situés dans la salle principale, soutenant le plafond plat entaillé, à poutres en bois simulées et reproduisant le plafond en lames de parquet des maisons des vivants.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe est  accessible par un petit  dromos avec deux petites chambres latérales. Le dromos mène à une vaste salle longitudinale dans laquelle se trouvent deux colonnes à chapiteau éolique et huit banquettes funéraires communiquant par trois portes (avec des fenêtres des chaque côté) avec les trois chambres funéraires proprement dites. 
 Les chambres funéraires sont à deux places (homme à gauche et femme à droite).
